--- a/DDAf_2023_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -5656,7 +5656,7 @@
         <v>13.738971559671601</v>
       </c>
       <c r="J89" s="39">
-        <v>5.9570933688534602</v>
+        <v>5.95709336885347</v>
       </c>
       <c r="K89" s="40">
         <v>37.459564058028398</v>
@@ -5794,7 +5794,7 @@
         <v>22.260286893258201</v>
       </c>
       <c r="H92" s="39">
-        <v>8.15874890002023</v>
+        <v>8.1587489000202194</v>
       </c>
       <c r="I92" s="39">
         <v>15.853344299466601</v>

--- a/DDAf_2023_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC193FA7-B2DD-4A78-8712-0E4905411212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF54F392-179A-443C-861B-14B36B0375B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{53DFA6B2-A637-4FAB-974C-230F56FCE8E2}"/>
+    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{DC6B6C7B-9B3F-464E-A78C-9AA38F070F58}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
   <si>
     <t>Tableau 10 : Indicateurs de genre</t>
   </si>
@@ -57,19 +57,19 @@
     <t>L'Indice d'inégalité de genre (IIG), 2019</t>
   </si>
   <si>
-    <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes (SIGI) 2019</t>
-  </si>
-  <si>
-    <t>Discriminations au sein de la famille (sous-indice SIGI) 2019</t>
-  </si>
-  <si>
-    <t>Atteintes à l'intégrité physique (sous-indice SIGI) 2019</t>
-  </si>
-  <si>
-    <t>Accès restreint aux ressources productives et financières (sous-indice SIGI), 2019</t>
-  </si>
-  <si>
-    <t>Atteintes aux libertés civiles (sous-indice SIGI), 2019</t>
+    <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes (SIGI) 2023</t>
+  </si>
+  <si>
+    <t>Discriminations au sein de la famille (sous-indice SIGI) 2023</t>
+  </si>
+  <si>
+    <t>Atteintes à l'intégrité physique (sous-indice SIGI) 2023</t>
+  </si>
+  <si>
+    <t>Accès restreint aux ressources productives et financières (sous-indice SIGI), 2023</t>
+  </si>
+  <si>
+    <t>Atteintes aux libertés civiles (sous-indice SIGI), 2023</t>
   </si>
   <si>
     <t>AGO</t>
@@ -78,19 +78,19 @@
     <t>Angola*</t>
   </si>
   <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>..</t>
-  </si>
-  <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>SWZ</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
   </si>
   <si>
     <t>LSO</t>
@@ -1357,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E543457-83C1-43A2-BF99-DDE9888FA196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54BBCFD-69AD-438E-ABEF-5D654B2F9649}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1434,28 +1434,28 @@
       <c r="E3" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>13</v>
+      <c r="F3" s="12">
+        <v>26.2</v>
       </c>
       <c r="G3" s="12">
-        <v>47.2</v>
+        <v>22.2</v>
       </c>
       <c r="H3" s="12">
-        <v>19</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>13</v>
+        <v>29.4</v>
+      </c>
+      <c r="I3" s="12">
+        <v>41</v>
+      </c>
+      <c r="J3" s="13">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="15">
         <v>0.73499999999999999</v>
@@ -1466,28 +1466,28 @@
       <c r="E4" s="16">
         <v>0.46500000000000002</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>13</v>
+      <c r="F4" s="17">
+        <v>32.200000000000003</v>
       </c>
       <c r="G4" s="17">
-        <v>39.6</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>13</v>
+        <v>53.2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>14.3</v>
       </c>
       <c r="I4" s="17">
-        <v>39.9</v>
+        <v>20</v>
       </c>
       <c r="J4" s="18">
-        <v>52.4</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="20">
         <v>0.61099999999999999</v>
@@ -1499,19 +1499,19 @@
         <v>0.56699999999999995</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="22">
-        <v>59.2</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>13</v>
+        <v>47.9</v>
+      </c>
+      <c r="H5" s="22">
+        <v>48.7</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="23">
+        <v>56.1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1531,19 +1531,19 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="F6" s="22">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="G6" s="22">
-        <v>46.5</v>
+        <v>64</v>
       </c>
       <c r="H6" s="22">
-        <v>26.9</v>
+        <v>21.2</v>
       </c>
       <c r="I6" s="22">
-        <v>40.5</v>
+        <v>46.3</v>
       </c>
       <c r="J6" s="23">
-        <v>37.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1563,19 +1563,19 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="F7" s="22">
-        <v>41.4</v>
+        <v>32.9</v>
       </c>
       <c r="G7" s="22">
-        <v>38.5</v>
+        <v>12.7</v>
       </c>
       <c r="H7" s="22">
-        <v>24.1</v>
+        <v>34.1</v>
       </c>
       <c r="I7" s="22">
-        <v>37.4</v>
+        <v>25.8</v>
       </c>
       <c r="J7" s="23">
-        <v>61.9</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1595,19 +1595,19 @@
         <v>0.52300000000000002</v>
       </c>
       <c r="F8" s="22">
-        <v>24.3</v>
+        <v>22.6</v>
       </c>
       <c r="G8" s="22">
-        <v>32</v>
+        <v>21.6</v>
       </c>
       <c r="H8" s="22">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="I8" s="22">
-        <v>15.3</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="J8" s="23">
-        <v>32.9</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1627,19 +1627,19 @@
         <v>0.44</v>
       </c>
       <c r="F9" s="22">
-        <v>27.1</v>
+        <v>28.7</v>
       </c>
       <c r="G9" s="22">
-        <v>33.1</v>
+        <v>26.1</v>
       </c>
       <c r="H9" s="22">
-        <v>12.6</v>
+        <v>48.5</v>
       </c>
       <c r="I9" s="22">
         <v>26.2</v>
       </c>
       <c r="J9" s="23">
-        <v>35.1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1659,19 +1659,19 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="F10" s="22">
-        <v>22.4</v>
+        <v>25.7</v>
       </c>
       <c r="G10" s="22">
-        <v>33.200000000000003</v>
+        <v>60</v>
       </c>
       <c r="H10" s="22">
-        <v>15.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="I10" s="22">
-        <v>19.600000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="J10" s="23">
-        <v>21</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1691,19 +1691,19 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="F11" s="17">
-        <v>34.799999999999997</v>
+        <v>30.4</v>
       </c>
       <c r="G11" s="17">
-        <v>40.700000000000003</v>
+        <v>34</v>
       </c>
       <c r="H11" s="17">
-        <v>27.6</v>
+        <v>26.6</v>
       </c>
       <c r="I11" s="17">
+        <v>32.6</v>
+      </c>
+      <c r="J11" s="18">
         <v>28.2</v>
-      </c>
-      <c r="J11" s="18">
-        <v>41.8</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1723,19 +1723,19 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="F12" s="22">
-        <v>32.4</v>
+        <v>19.5</v>
       </c>
       <c r="G12" s="22">
-        <v>42.8</v>
+        <v>18.8</v>
       </c>
       <c r="H12" s="22">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="I12" s="22">
-        <v>34.299999999999997</v>
+        <v>29.9</v>
       </c>
       <c r="J12" s="23">
-        <v>30.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1755,19 +1755,19 @@
         <v>0.5121</v>
       </c>
       <c r="F13" s="28">
-        <v>31.5</v>
+        <v>28.455555555555598</v>
       </c>
       <c r="G13" s="28">
-        <v>41.28</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="H13" s="28">
-        <v>20.125</v>
+        <v>27.57</v>
       </c>
       <c r="I13" s="28">
-        <v>30.175000000000001</v>
+        <v>29.755555555555599</v>
       </c>
       <c r="J13" s="29">
-        <v>39.200000000000003</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1786,20 +1786,20 @@
       <c r="E14" s="21">
         <v>0.504</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>13</v>
+      <c r="F14" s="22">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G14" s="22">
+        <v>62.5</v>
       </c>
       <c r="H14" s="22">
-        <v>31.9</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>13</v>
+        <v>25.8</v>
+      </c>
+      <c r="I14" s="22">
+        <v>37.4</v>
+      </c>
+      <c r="J14" s="23">
+        <v>33.6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1819,19 +1819,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F15" s="22">
-        <v>51.8</v>
+        <v>66.2</v>
       </c>
       <c r="G15" s="22">
-        <v>51.1</v>
+        <v>86.7</v>
       </c>
       <c r="H15" s="22">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="I15" s="22">
-        <v>77.7</v>
+        <v>83.9</v>
       </c>
       <c r="J15" s="23">
-        <v>45.4</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1851,19 +1851,19 @@
         <v>0.68</v>
       </c>
       <c r="F16" s="22">
-        <v>43.4</v>
+        <v>49.1</v>
       </c>
       <c r="G16" s="22">
-        <v>56.4</v>
+        <v>65</v>
       </c>
       <c r="H16" s="22">
-        <v>24.5</v>
+        <v>31.4</v>
       </c>
       <c r="I16" s="22">
-        <v>35.1</v>
+        <v>47.1</v>
       </c>
       <c r="J16" s="23">
-        <v>54.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1883,19 +1883,19 @@
         <v>0.71</v>
       </c>
       <c r="F17" s="33">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="G17" s="33">
-        <v>55.8</v>
+        <v>45.9</v>
       </c>
       <c r="H17" s="33">
-        <v>32.200000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="I17" s="33">
-        <v>61.9</v>
+        <v>80.2</v>
       </c>
       <c r="J17" s="34">
-        <v>27.2</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1915,19 +1915,19 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G18" s="33">
-        <v>42.8</v>
+        <v>55</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="I18" s="33">
+        <v>58.1</v>
       </c>
       <c r="J18" s="34">
-        <v>58.3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1947,19 +1947,19 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="F19" s="17">
-        <v>39.5</v>
+        <v>47.1</v>
       </c>
       <c r="G19" s="17">
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="H19" s="17">
-        <v>35.1</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="I19" s="17">
-        <v>46.4</v>
+        <v>65.2</v>
       </c>
       <c r="J19" s="18">
-        <v>20.7</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1973,25 +1973,25 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G20" s="33">
-        <v>63.9</v>
+        <v>55.5</v>
       </c>
       <c r="H20" s="33">
-        <v>37.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -2011,19 +2011,19 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="F21" s="33">
-        <v>40.1</v>
+        <v>33.4</v>
       </c>
       <c r="G21" s="33">
-        <v>50.5</v>
+        <v>41.9</v>
       </c>
       <c r="H21" s="33">
-        <v>37.299999999999997</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I21" s="33">
-        <v>45.5</v>
+        <v>40.4</v>
       </c>
       <c r="J21" s="34">
-        <v>25.6</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2043,19 +2043,19 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G22" s="22">
-        <v>16.399999999999999</v>
+        <v>5</v>
       </c>
       <c r="H22" s="22">
-        <v>13.8</v>
+        <v>14.9</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2075,19 +2075,19 @@
         <v>0.58787500000000004</v>
       </c>
       <c r="F23" s="28">
-        <v>44.04</v>
+        <v>47.016666666666701</v>
       </c>
       <c r="G23" s="28">
-        <v>48.737499999999997</v>
+        <v>52.2222222222222</v>
       </c>
       <c r="H23" s="28">
-        <v>29.824999999999999</v>
+        <v>27.6875</v>
       </c>
       <c r="I23" s="28">
-        <v>53.32</v>
+        <v>58.9</v>
       </c>
       <c r="J23" s="29">
-        <v>38.566666666666698</v>
+        <v>37.757142857142902</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -2104,22 +2104,22 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F24" s="22">
+        <v>55</v>
       </c>
       <c r="G24" s="22">
-        <v>80.900000000000006</v>
+        <v>87.2</v>
       </c>
       <c r="H24" s="22">
-        <v>28.2</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>13</v>
+        <v>30.6</v>
+      </c>
+      <c r="I24" s="22">
+        <v>30.7</v>
+      </c>
+      <c r="J24" s="23">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -2133,25 +2133,25 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G25" s="22">
-        <v>72.900000000000006</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="I25" s="22">
+        <v>44.8</v>
+      </c>
+      <c r="J25" s="23">
+        <v>36.1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -2165,25 +2165,25 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G26" s="22">
-        <v>42</v>
+        <v>55.1</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -2203,19 +2203,19 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="F27" s="22">
-        <v>29.6</v>
+        <v>31.4</v>
       </c>
       <c r="G27" s="22">
-        <v>34.799999999999997</v>
+        <v>40.6</v>
       </c>
       <c r="H27" s="22">
-        <v>30.8</v>
+        <v>23.8</v>
       </c>
       <c r="I27" s="22">
-        <v>34</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J27" s="23">
-        <v>17.899999999999999</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -2235,19 +2235,19 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="F28" s="22">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="G28" s="22">
-        <v>50.5</v>
+        <v>40.1</v>
       </c>
       <c r="H28" s="22">
-        <v>28.9</v>
+        <v>30.6</v>
       </c>
       <c r="I28" s="22">
-        <v>42.2</v>
+        <v>44.7</v>
       </c>
       <c r="J28" s="23">
-        <v>17.2</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -2264,22 +2264,22 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F29" s="22">
-        <v>47.5</v>
+        <v>41.4</v>
       </c>
       <c r="G29" s="22">
-        <v>57.2</v>
+        <v>43.3</v>
       </c>
       <c r="H29" s="22">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="I29" s="22">
         <v>39.200000000000003</v>
       </c>
       <c r="J29" s="23">
-        <v>59.4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -2299,19 +2299,19 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G30" s="22">
-        <v>52.7</v>
+        <v>47.1</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I30" s="22">
-        <v>19.2</v>
+        <v>6.1</v>
       </c>
       <c r="J30" s="23">
-        <v>40.700000000000003</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -2331,19 +2331,19 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="F31" s="22">
-        <v>27.6</v>
+        <v>25.7</v>
       </c>
       <c r="G31" s="22">
-        <v>38</v>
+        <v>35.4</v>
       </c>
       <c r="H31" s="22">
-        <v>21.4</v>
+        <v>17.3</v>
       </c>
       <c r="I31" s="22">
-        <v>26.5</v>
+        <v>39.6</v>
       </c>
       <c r="J31" s="23">
-        <v>23.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -2357,25 +2357,25 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G32" s="22">
-        <v>40.700000000000003</v>
+        <v>8.6</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -2386,28 +2386,28 @@
         <v>72</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F33" s="22">
+        <v>51.5</v>
       </c>
       <c r="G33" s="22">
-        <v>76.2</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>13</v>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="H33" s="22">
+        <v>36.9</v>
+      </c>
+      <c r="I33" s="22">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J33" s="23">
+        <v>53.6</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2424,22 +2424,22 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F34" s="17">
+        <v>38.4</v>
       </c>
       <c r="G34" s="17">
         <v>60.5</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>13</v>
+      <c r="H34" s="17">
+        <v>37.6</v>
+      </c>
+      <c r="I34" s="17">
+        <v>33.1</v>
       </c>
       <c r="J34" s="18">
-        <v>23.2</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2458,20 +2458,20 @@
       <c r="E35" s="21">
         <v>0.54500000000000004</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>13</v>
+      <c r="F35" s="22">
+        <v>63.3</v>
       </c>
       <c r="G35" s="22">
         <v>89.9</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>13</v>
+      <c r="H35" s="22">
+        <v>33</v>
+      </c>
+      <c r="I35" s="22">
+        <v>86.8</v>
+      </c>
+      <c r="J35" s="23">
+        <v>26.5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2491,19 +2491,19 @@
         <v>0.55600000000000005</v>
       </c>
       <c r="F36" s="22">
-        <v>46.1</v>
+        <v>50</v>
       </c>
       <c r="G36" s="22">
-        <v>80.599999999999994</v>
+        <v>86.9</v>
       </c>
       <c r="H36" s="22">
-        <v>28.5</v>
+        <v>34.9</v>
       </c>
       <c r="I36" s="22">
-        <v>30</v>
+        <v>31.4</v>
       </c>
       <c r="J36" s="23">
-        <v>35.200000000000003</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2523,19 +2523,19 @@
         <v>0.53500000000000003</v>
       </c>
       <c r="F37" s="22">
-        <v>45.1</v>
+        <v>28.9</v>
       </c>
       <c r="G37" s="22">
-        <v>54</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="H37" s="22">
-        <v>34.299999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I37" s="22">
-        <v>61.4</v>
+        <v>28.2</v>
       </c>
       <c r="J37" s="23">
-        <v>26.6</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2555,19 +2555,19 @@
         <v>0.48857142857142999</v>
       </c>
       <c r="F38" s="28">
-        <v>38.566666666666698</v>
+        <v>42.12</v>
       </c>
       <c r="G38" s="28">
-        <v>59.35</v>
+        <v>56.178571428571402</v>
       </c>
       <c r="H38" s="28">
-        <v>29.1</v>
+        <v>31.33</v>
       </c>
       <c r="I38" s="28">
-        <v>36.071428571428598</v>
+        <v>38.841666666666697</v>
       </c>
       <c r="J38" s="29">
-        <v>30.462499999999999</v>
+        <v>31.1666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2587,19 +2587,19 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G39" s="33">
         <v>79.900000000000006</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I39" s="33">
-        <v>41.2</v>
+        <v>46.5</v>
       </c>
       <c r="J39" s="34">
-        <v>61.3</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2618,20 +2618,20 @@
       <c r="E40" s="21">
         <v>0.44900000000000001</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>13</v>
+      <c r="F40" s="22">
+        <v>57.1</v>
       </c>
       <c r="G40" s="22">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>13</v>
+        <v>81.400000000000006</v>
+      </c>
+      <c r="H40" s="22">
+        <v>31.1</v>
       </c>
       <c r="I40" s="22">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>13</v>
+        <v>46.7</v>
+      </c>
+      <c r="J40" s="23">
+        <v>62.2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -2651,19 +2651,19 @@
         <v>0.252</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G41" s="33">
-        <v>40.799999999999997</v>
+        <v>86.3</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="J41" s="34">
+        <v>72.3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2682,20 +2682,20 @@
       <c r="E42" s="32">
         <v>0.63400000000000001</v>
       </c>
-      <c r="F42" s="33" t="s">
-        <v>13</v>
+      <c r="F42" s="33">
+        <v>67.7</v>
       </c>
       <c r="G42" s="33">
-        <v>88.1</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="H42" s="33">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I42" s="33">
+        <v>85.6</v>
       </c>
       <c r="J42" s="34">
-        <v>52.2</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -2715,19 +2715,19 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="F43" s="22">
-        <v>50.8</v>
+        <v>48.8</v>
       </c>
       <c r="G43" s="22">
-        <v>73.400000000000006</v>
+        <v>73.3</v>
       </c>
       <c r="H43" s="22">
-        <v>25.7</v>
+        <v>28.5</v>
       </c>
       <c r="I43" s="22">
-        <v>37.799999999999997</v>
+        <v>44</v>
       </c>
       <c r="J43" s="23">
-        <v>59.3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2747,19 +2747,19 @@
         <v>0.29599999999999999</v>
       </c>
       <c r="F44" s="22">
-        <v>47.6</v>
+        <v>49.2</v>
       </c>
       <c r="G44" s="22">
-        <v>79.900000000000006</v>
+        <v>86.3</v>
       </c>
       <c r="H44" s="22">
-        <v>9.4</v>
+        <v>11.1</v>
       </c>
       <c r="I44" s="22">
-        <v>35</v>
+        <v>37.4</v>
       </c>
       <c r="J44" s="23">
-        <v>52.8</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2779,19 +2779,19 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="F45" s="28">
-        <v>49.2</v>
+        <v>55.7</v>
       </c>
       <c r="G45" s="28">
-        <v>73.45</v>
+        <v>82.533333333333402</v>
       </c>
       <c r="H45" s="28">
-        <v>17.55</v>
+        <v>25.75</v>
       </c>
       <c r="I45" s="28">
-        <v>44.65</v>
+        <v>52.04</v>
       </c>
       <c r="J45" s="29">
-        <v>56.4</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -2811,19 +2811,19 @@
         <v>0.61199999999999999</v>
       </c>
       <c r="F46" s="22">
-        <v>39.799999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G46" s="22">
-        <v>40.5</v>
+        <v>22.2</v>
       </c>
       <c r="H46" s="22">
-        <v>27.7</v>
+        <v>14.5</v>
       </c>
       <c r="I46" s="22">
-        <v>36.200000000000003</v>
+        <v>39.1</v>
       </c>
       <c r="J46" s="23">
-        <v>53.3</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -2843,19 +2843,19 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="F47" s="22">
-        <v>32.4</v>
+        <v>25.6</v>
       </c>
       <c r="G47" s="22">
-        <v>44.9</v>
+        <v>29.2</v>
       </c>
       <c r="H47" s="22">
-        <v>35.5</v>
+        <v>23</v>
       </c>
       <c r="I47" s="22">
-        <v>32.9</v>
+        <v>30.5</v>
       </c>
       <c r="J47" s="23">
-        <v>13.8</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -2875,19 +2875,19 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G48" s="33">
-        <v>36.799999999999997</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H48" s="33">
-        <v>9.9</v>
+        <v>16.3</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -2907,19 +2907,19 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="F49" s="22">
-        <v>42.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G49" s="22">
-        <v>29.7</v>
+        <v>12.4</v>
       </c>
       <c r="H49" s="22">
-        <v>35.6</v>
+        <v>28.6</v>
       </c>
       <c r="I49" s="22">
-        <v>76.099999999999994</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J49" s="23">
-        <v>20.399999999999999</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -2938,20 +2938,20 @@
       <c r="E50" s="21">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F50" s="22" t="s">
-        <v>13</v>
+      <c r="F50" s="22">
+        <v>48</v>
       </c>
       <c r="G50" s="22">
-        <v>87.8</v>
+        <v>66.5</v>
       </c>
       <c r="H50" s="22">
-        <v>44.9</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>13</v>
+        <v>31.6</v>
+      </c>
+      <c r="I50" s="22">
+        <v>47.4</v>
       </c>
       <c r="J50" s="23">
-        <v>48.4</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -2971,19 +2971,19 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F51" s="17">
-        <v>34.5</v>
+        <v>38.5</v>
       </c>
       <c r="G51" s="17">
-        <v>59.5</v>
+        <v>44.3</v>
       </c>
       <c r="H51" s="17">
-        <v>20.2</v>
+        <v>28.5</v>
       </c>
       <c r="I51" s="17">
-        <v>30.7</v>
+        <v>26</v>
       </c>
       <c r="J51" s="18">
-        <v>22.7</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -3000,22 +3000,22 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F52" s="22">
-        <v>56.7</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="G52" s="22">
-        <v>87.7</v>
+        <v>56</v>
       </c>
       <c r="H52" s="22">
-        <v>56.9</v>
+        <v>28.6</v>
       </c>
       <c r="I52" s="22">
-        <v>28.2</v>
+        <v>34.6</v>
       </c>
       <c r="J52" s="23">
-        <v>44.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -3029,25 +3029,25 @@
         <v>0.48</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G53" s="22">
-        <v>59.7</v>
+        <v>42.1</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -3067,19 +3067,19 @@
         <v>0.65</v>
       </c>
       <c r="F54" s="22">
-        <v>47.5</v>
+        <v>40.1</v>
       </c>
       <c r="G54" s="22">
-        <v>60</v>
+        <v>59.8</v>
       </c>
       <c r="H54" s="22">
-        <v>33.5</v>
+        <v>46.3</v>
       </c>
       <c r="I54" s="22">
-        <v>41.5</v>
+        <v>29.1</v>
       </c>
       <c r="J54" s="23">
-        <v>52.8</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -3099,19 +3099,19 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="F55" s="22">
-        <v>46</v>
+        <v>52.9</v>
       </c>
       <c r="G55" s="22">
-        <v>63.5</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="H55" s="22">
-        <v>48.4</v>
+        <v>55.6</v>
       </c>
       <c r="I55" s="22">
-        <v>39.9</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J55" s="23">
-        <v>28.9</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -3130,20 +3130,20 @@
       <c r="E56" s="21">
         <v>0.64200000000000002</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>13</v>
+      <c r="F56" s="22">
+        <v>60.3</v>
       </c>
       <c r="G56" s="22">
-        <v>84.4</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>13</v>
+        <v>84.1</v>
+      </c>
+      <c r="H56" s="22">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I56" s="22">
+        <v>84.6</v>
       </c>
       <c r="J56" s="23">
-        <v>25.6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -3160,22 +3160,22 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F57" s="33">
-        <v>46</v>
+        <v>42.9</v>
       </c>
       <c r="G57" s="33">
-        <v>54.8</v>
+        <v>56.5</v>
       </c>
       <c r="H57" s="33">
-        <v>32</v>
+        <v>28.5</v>
       </c>
       <c r="I57" s="33">
-        <v>41.4</v>
+        <v>36.4</v>
       </c>
       <c r="J57" s="34">
-        <v>53.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -3195,19 +3195,19 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="F58" s="22">
-        <v>37</v>
+        <v>41.8</v>
       </c>
       <c r="G58" s="22">
-        <v>64.900000000000006</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="H58" s="22">
-        <v>41.9</v>
+        <v>37.9</v>
       </c>
       <c r="I58" s="22">
-        <v>27.6</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J58" s="23">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -3227,19 +3227,19 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="F59" s="22">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="G59" s="22">
-        <v>53.7</v>
+        <v>41.9</v>
       </c>
       <c r="H59" s="22">
-        <v>50.4</v>
+        <v>47.8</v>
       </c>
       <c r="I59" s="22">
-        <v>44.8</v>
+        <v>51</v>
       </c>
       <c r="J59" s="23">
-        <v>40.9</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3259,19 +3259,19 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="F60" s="17">
-        <v>49.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G60" s="17">
-        <v>63.1</v>
+        <v>51.1</v>
       </c>
       <c r="H60" s="17">
-        <v>24.7</v>
+        <v>28</v>
       </c>
       <c r="I60" s="17">
-        <v>43.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J60" s="18">
-        <v>62</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3289,19 +3289,19 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="F61" s="28">
-        <v>43.618181818181803</v>
+        <v>40.2615384615385</v>
       </c>
       <c r="G61" s="28">
-        <v>59.4</v>
+        <v>47.946666666666701</v>
       </c>
       <c r="H61" s="28">
-        <v>35.507692307692302</v>
+        <v>32.071428571428598</v>
       </c>
       <c r="I61" s="28">
-        <v>40.2545454545455</v>
+        <v>37.630769230769197</v>
       </c>
       <c r="J61" s="29">
-        <v>36.207692307692298</v>
+        <v>34.2153846153846</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3319,19 +3319,19 @@
         <v>0.53167441860465003</v>
       </c>
       <c r="F62" s="40">
-        <v>40.332258064516097</v>
+        <v>40.6095238095238</v>
       </c>
       <c r="G62" s="40">
-        <v>55.949056603773599</v>
+        <v>52.433333333333401</v>
       </c>
       <c r="H62" s="40">
-        <v>28.947368421052602</v>
+        <v>29.619565217391301</v>
       </c>
       <c r="I62" s="40">
-        <v>39.482857142857199</v>
+        <v>41.208695652173901</v>
       </c>
       <c r="J62" s="41">
-        <v>38.076923076923102</v>
+        <v>34.595833333333303</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3349,19 +3349,19 @@
         <v>0.27639495798319003</v>
       </c>
       <c r="F63" s="45">
-        <v>25.784090909090899</v>
+        <v>25.314893617021301</v>
       </c>
       <c r="G63" s="45">
-        <v>38.530327868852503</v>
+        <v>31.188333333333301</v>
       </c>
       <c r="H63" s="45">
-        <v>19.038709677419401</v>
+        <v>26.821153846153798</v>
       </c>
       <c r="I63" s="45">
-        <v>22.842268041237102</v>
+        <v>22.7</v>
       </c>
       <c r="J63" s="46">
-        <v>24.610416666666701</v>
+        <v>26.0304761904762</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -3379,19 +3379,19 @@
         <v>0.39182142857142999</v>
       </c>
       <c r="F64" s="40">
-        <v>25.433333333333302</v>
+        <v>21.9136363636364</v>
       </c>
       <c r="G64" s="40">
-        <v>31.1620689655172</v>
+        <v>22.226666666666699</v>
       </c>
       <c r="H64" s="40">
-        <v>21.816666666666698</v>
+        <v>26.376000000000001</v>
       </c>
       <c r="I64" s="40">
-        <v>22.871428571428599</v>
+        <v>23.236363636363599</v>
       </c>
       <c r="J64" s="41">
-        <v>20.1619047619048</v>
+        <v>17.616</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -3409,19 +3409,19 @@
         <v>0.43425925925926001</v>
       </c>
       <c r="F65" s="51">
-        <v>42.757142857142902</v>
+        <v>41.763636363636401</v>
       </c>
       <c r="G65" s="51">
-        <v>57.262068965517301</v>
+        <v>53.996428571428602</v>
       </c>
       <c r="H65" s="51">
-        <v>25.908333333333299</v>
+        <v>35.723999999999997</v>
       </c>
       <c r="I65" s="51">
-        <v>37.671428571428599</v>
+        <v>36.107407407407401</v>
       </c>
       <c r="J65" s="52">
-        <v>42.122727272727303</v>
+        <v>40.216000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3439,19 +3439,19 @@
         <v>0.34415432098764998</v>
       </c>
       <c r="F66" s="56">
-        <v>29.573949579831901</v>
+        <v>30.038235294117701</v>
       </c>
       <c r="G66" s="56">
-        <v>43.805714285714302</v>
+        <v>37.781609195402297</v>
       </c>
       <c r="H66" s="56">
-        <v>21.912977099236699</v>
+        <v>27.6793333333333</v>
       </c>
       <c r="I66" s="56">
-        <v>27.2545454545455</v>
+        <v>28.301315789473701</v>
       </c>
       <c r="J66" s="57">
-        <v>28.500740740740699</v>
+        <v>28.717647058823498</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -3469,19 +3469,19 @@
         <v>0.47866666666667002</v>
       </c>
       <c r="F67" s="61">
-        <v>38.1</v>
+        <v>40.6533333333333</v>
       </c>
       <c r="G67" s="61">
-        <v>56.164999999999999</v>
+        <v>53.404761904761898</v>
       </c>
       <c r="H67" s="61">
-        <v>26.9583333333333</v>
+        <v>29.393750000000001</v>
       </c>
       <c r="I67" s="61">
-        <v>39.033333333333303</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="J67" s="62">
-        <v>35.763636363636401</v>
+        <v>37.784210526315803</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -3499,19 +3499,19 @@
         <v>0.55983333333332996</v>
       </c>
       <c r="F68" s="51">
-        <v>44.25</v>
+        <v>46.214285714285701</v>
       </c>
       <c r="G68" s="51">
-        <v>65.164000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="H68" s="51">
-        <v>33.637500000000003</v>
+        <v>30.995238095238101</v>
       </c>
       <c r="I68" s="51">
-        <v>42.38</v>
+        <v>45.645454545454498</v>
       </c>
       <c r="J68" s="52">
-        <v>39.035294117647098</v>
+        <v>41.060869565217402</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
@@ -3529,19 +3529,19 @@
         <v>0.503</v>
       </c>
       <c r="F69" s="51">
-        <v>38.575000000000003</v>
+        <v>36.566666666666698</v>
       </c>
       <c r="G69" s="51">
-        <v>56.72</v>
+        <v>54.366666666666703</v>
       </c>
       <c r="H69" s="51">
-        <v>29</v>
+        <v>30.65</v>
       </c>
       <c r="I69" s="51">
-        <v>40.024999999999999</v>
+        <v>35.733333333333299</v>
       </c>
       <c r="J69" s="52">
-        <v>25.14</v>
+        <v>20.716666666666701</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3559,19 +3559,19 @@
         <v>0.56410000000000005</v>
       </c>
       <c r="F70" s="51">
-        <v>41.3</v>
+        <v>41.75</v>
       </c>
       <c r="G70" s="51">
-        <v>47.51</v>
+        <v>47.963636363636397</v>
       </c>
       <c r="H70" s="51">
-        <v>27.9</v>
+        <v>26.82</v>
       </c>
       <c r="I70" s="51">
-        <v>48.85</v>
+        <v>54.766666666666701</v>
       </c>
       <c r="J70" s="52">
-        <v>36.414285714285697</v>
+        <v>31.211111111111101</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
@@ -3589,19 +3589,19 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="F71" s="51">
-        <v>43.618181818181803</v>
+        <v>40.2615384615385</v>
       </c>
       <c r="G71" s="51">
-        <v>59.4</v>
+        <v>47.946666666666701</v>
       </c>
       <c r="H71" s="51">
-        <v>35.507692307692302</v>
+        <v>32.071428571428598</v>
       </c>
       <c r="I71" s="51">
-        <v>40.2545454545455</v>
+        <v>37.630769230769197</v>
       </c>
       <c r="J71" s="52">
-        <v>36.207692307692298</v>
+        <v>34.2153846153846</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
@@ -3619,19 +3619,19 @@
         <v>0.52875000000000005</v>
       </c>
       <c r="F72" s="51">
-        <v>36.733333333333299</v>
+        <v>41.516666666666701</v>
       </c>
       <c r="G72" s="51">
-        <v>60.1</v>
+        <v>59.75</v>
       </c>
       <c r="H72" s="51">
-        <v>31.3333333333333</v>
+        <v>33.266666666666701</v>
       </c>
       <c r="I72" s="51">
-        <v>45.866666666666703</v>
+        <v>45.585714285714303</v>
       </c>
       <c r="J72" s="52">
-        <v>21.225000000000001</v>
+        <v>26.228571428571399</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -3649,19 +3649,19 @@
         <v>0.51084615384614995</v>
       </c>
       <c r="F73" s="51">
-        <v>35.36</v>
+        <v>34.584615384615397</v>
       </c>
       <c r="G73" s="51">
-        <v>48.618749999999999</v>
+        <v>42.881250000000001</v>
       </c>
       <c r="H73" s="51">
-        <v>23.7</v>
+        <v>28.8857142857143</v>
       </c>
       <c r="I73" s="51">
-        <v>31.35</v>
+        <v>31.457142857142902</v>
       </c>
       <c r="J73" s="52">
-        <v>39.133333333333297</v>
+        <v>30.286666666666701</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -3679,19 +3679,19 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F74" s="51">
-        <v>49.2</v>
+        <v>55.233333333333299</v>
       </c>
       <c r="G74" s="51">
-        <v>72.42</v>
+        <v>82.76</v>
       </c>
       <c r="H74" s="51">
-        <v>17.55</v>
+        <v>23.966666666666701</v>
       </c>
       <c r="I74" s="51">
-        <v>38</v>
+        <v>53.375</v>
       </c>
       <c r="J74" s="52">
-        <v>56.4</v>
+        <v>55.84</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3709,19 +3709,19 @@
         <v>0.49825000000000003</v>
       </c>
       <c r="F75" s="56">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="G75" s="56">
-        <v>38.42</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="H75" s="56">
-        <v>14.55</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="I75" s="56">
-        <v>15.3</v>
+        <v>37.4</v>
       </c>
       <c r="J75" s="57">
-        <v>32.9</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -3739,19 +3739,19 @@
         <v>0.35489999999999999</v>
       </c>
       <c r="F76" s="61">
-        <v>35.037500000000001</v>
+        <v>37.7222222222222</v>
       </c>
       <c r="G76" s="61">
-        <v>48.83</v>
+        <v>47.18</v>
       </c>
       <c r="H76" s="61">
-        <v>22.85</v>
+        <v>36.955555555555598</v>
       </c>
       <c r="I76" s="61">
-        <v>32.049999999999997</v>
+        <v>33.377777777777801</v>
       </c>
       <c r="J76" s="62">
-        <v>41.262500000000003</v>
+        <v>36.411111111111097</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -3769,19 +3769,19 @@
         <v>0.39316666666666999</v>
       </c>
       <c r="F77" s="51">
-        <v>25.262499999999999</v>
+        <v>21.41</v>
       </c>
       <c r="G77" s="51">
-        <v>31.554545454545501</v>
+        <v>22.766666666666701</v>
       </c>
       <c r="H77" s="51">
-        <v>17.912500000000001</v>
+        <v>25.5416666666667</v>
       </c>
       <c r="I77" s="51">
-        <v>26.77</v>
+        <v>24.25</v>
       </c>
       <c r="J77" s="52">
-        <v>17.61</v>
+        <v>16.116666666666699</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3799,19 +3799,19 @@
         <v>0.10677777777778</v>
       </c>
       <c r="F78" s="51">
-        <v>16.669230769230801</v>
+        <v>14.596</v>
       </c>
       <c r="G78" s="51">
-        <v>24.9185185185185</v>
+        <v>12.9444444444444</v>
       </c>
       <c r="H78" s="51">
-        <v>11.9884615384615</v>
+        <v>19.271999999999998</v>
       </c>
       <c r="I78" s="51">
-        <v>10.7</v>
+        <v>7.75555555555556</v>
       </c>
       <c r="J78" s="52">
-        <v>17.3037037037037</v>
+        <v>18.281481481481499</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3829,19 +3829,19 @@
         <v>0.12189473684211</v>
       </c>
       <c r="F79" s="56">
-        <v>17.54</v>
+        <v>16.466666666666701</v>
       </c>
       <c r="G79" s="56">
-        <v>25.678947368421099</v>
+        <v>13.634210526315799</v>
       </c>
       <c r="H79" s="56">
-        <v>12.911428571428599</v>
+        <v>18.961111111111101</v>
       </c>
       <c r="I79" s="56">
-        <v>13.821621621621601</v>
+        <v>13.2947368421053</v>
       </c>
       <c r="J79" s="57">
-        <v>17.1605263157895</v>
+        <v>18.436842105263199</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
@@ -3859,19 +3859,19 @@
         <v>0.50662499999999999</v>
       </c>
       <c r="F80" s="61">
-        <v>43.8333333333333</v>
+        <v>43.14</v>
       </c>
       <c r="G80" s="61">
-        <v>56.06</v>
+        <v>54</v>
       </c>
       <c r="H80" s="61">
-        <v>27.983333333333299</v>
+        <v>27.985714285714302</v>
       </c>
       <c r="I80" s="61">
-        <v>47.5</v>
+        <v>55.457142857142898</v>
       </c>
       <c r="J80" s="62">
-        <v>46.4166666666667</v>
+        <v>42.0625</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3889,19 +3889,19 @@
         <v>0.35285</v>
       </c>
       <c r="F81" s="51">
-        <v>35.766666666666701</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="G81" s="51">
-        <v>58.280952380952399</v>
+        <v>56.8</v>
       </c>
       <c r="H81" s="51">
-        <v>26.18</v>
+        <v>36.992857142857098</v>
       </c>
       <c r="I81" s="51">
-        <v>31.8</v>
+        <v>32.282352941176498</v>
       </c>
       <c r="J81" s="52">
-        <v>34.700000000000003</v>
+        <v>39.340000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -3919,19 +3919,19 @@
         <v>0.53739999999999999</v>
       </c>
       <c r="F82" s="51">
-        <v>39.957142857142898</v>
+        <v>40.267567567567603</v>
       </c>
       <c r="G82" s="51">
-        <v>55.923255813953503</v>
+        <v>52.0772727272727</v>
       </c>
       <c r="H82" s="51">
-        <v>29.128125000000001</v>
+        <v>29.912820512820499</v>
       </c>
       <c r="I82" s="51">
-        <v>38.448387096774198</v>
+        <v>38.651282051282102</v>
       </c>
       <c r="J82" s="52">
-        <v>36.560606060606098</v>
+        <v>33.102499999999999</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3949,19 +3949,19 @@
         <v>0.26094949494948999</v>
       </c>
       <c r="F83" s="56">
-        <v>24.646835443038</v>
+        <v>23.845238095238098</v>
       </c>
       <c r="G83" s="56">
-        <v>34.423762376237597</v>
+        <v>25.755555555555599</v>
       </c>
       <c r="H83" s="56">
-        <v>18.178313253012</v>
+        <v>25.238888888888901</v>
       </c>
       <c r="I83" s="56">
-        <v>21.4559523809524</v>
+        <v>20.869662921348301</v>
       </c>
       <c r="J83" s="57">
-        <v>23.304705882352899</v>
+        <v>23.8122222222222</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
@@ -3979,19 +3979,19 @@
         <v>0.58729411764705997</v>
       </c>
       <c r="F84" s="61">
-        <v>41.566666666666698</v>
+        <v>41.242857142857098</v>
       </c>
       <c r="G84" s="61">
-        <v>58.777272727272702</v>
+        <v>52.043478260869598</v>
       </c>
       <c r="H84" s="61">
-        <v>33.864705882353</v>
+        <v>32.3857142857143</v>
       </c>
       <c r="I84" s="61">
-        <v>39.200000000000003</v>
+        <v>44.423809523809503</v>
       </c>
       <c r="J84" s="62">
-        <v>36.905555555555601</v>
+        <v>31.0571428571429</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4008,20 +4008,20 @@
       <c r="E85" s="50">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F85" s="51">
-        <v>58.4</v>
+      <c r="F85" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="G85" s="51">
-        <v>85.7</v>
-      </c>
-      <c r="H85" s="51">
-        <v>38.75</v>
+        <v>86.3</v>
+      </c>
+      <c r="H85" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="I85" s="51">
-        <v>44.4</v>
+        <v>51.55</v>
       </c>
       <c r="J85" s="52">
-        <v>56.95</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
@@ -4039,19 +4039,19 @@
         <v>0.52215</v>
       </c>
       <c r="F86" s="51">
-        <v>41.323076923076897</v>
+        <v>42.323529411764703</v>
       </c>
       <c r="G86" s="51">
-        <v>57.291304347826099</v>
+        <v>54.595652173913102</v>
       </c>
       <c r="H86" s="51">
-        <v>24.8117647058824</v>
+        <v>27.085000000000001</v>
       </c>
       <c r="I86" s="51">
-        <v>42.9</v>
+        <v>42.89</v>
       </c>
       <c r="J86" s="52">
-        <v>40.368749999999999</v>
+        <v>39.052380952381</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4069,19 +4069,19 @@
         <v>0.43180769230769001</v>
       </c>
       <c r="F87" s="51">
-        <v>34.504761904761899</v>
+        <v>34.547826086956498</v>
       </c>
       <c r="G87" s="51">
-        <v>44.303571428571402</v>
+        <v>40.103571428571399</v>
       </c>
       <c r="H87" s="51">
-        <v>25.164000000000001</v>
+        <v>33.077777777777797</v>
       </c>
       <c r="I87" s="51">
-        <v>32.485714285714302</v>
+        <v>32.076000000000001</v>
       </c>
       <c r="J87" s="52">
-        <v>32.686363636363602</v>
+        <v>30.487500000000001</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4099,19 +4099,19 @@
         <v>0.40583333333332999</v>
       </c>
       <c r="F88" s="51">
-        <v>29.866666666666699</v>
+        <v>30</v>
       </c>
       <c r="G88" s="51">
-        <v>44.828571428571401</v>
+        <v>52.871428571428602</v>
       </c>
       <c r="H88" s="51">
-        <v>25.625</v>
+        <v>28.14</v>
       </c>
       <c r="I88" s="51">
-        <v>30.08</v>
+        <v>20.98</v>
       </c>
       <c r="J88" s="52">
-        <v>34.96</v>
+        <v>31.383333333333301</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
@@ -4129,19 +4129,19 @@
         <v>0.31969999999999998</v>
       </c>
       <c r="F89" s="51">
-        <v>27.4607142857143</v>
+        <v>25.854838709677399</v>
       </c>
       <c r="G89" s="51">
-        <v>37.555</v>
+        <v>27.6897435897436</v>
       </c>
       <c r="H89" s="51">
-        <v>19.851724137931001</v>
+        <v>28.3189189189189</v>
       </c>
       <c r="I89" s="51">
-        <v>24.354838709677399</v>
+        <v>23.240625000000001</v>
       </c>
       <c r="J89" s="52">
-        <v>24.103225806451601</v>
+        <v>22.520588235294099</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4159,19 +4159,19 @@
         <v>0.1319387755102</v>
       </c>
       <c r="F90" s="56">
-        <v>17.8027027027027</v>
+        <v>19.664102564102599</v>
       </c>
       <c r="G90" s="56">
-        <v>33.2960784313725</v>
+        <v>26.786274509803899</v>
       </c>
       <c r="H90" s="56">
-        <v>13.1972972972973</v>
+        <v>21.087179487179501</v>
       </c>
       <c r="I90" s="56">
-        <v>16.119047619047599</v>
+        <v>15.941304347826099</v>
       </c>
       <c r="J90" s="57">
-        <v>19.195</v>
+        <v>24.7886363636364</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4189,19 +4189,19 @@
         <v>0.57935999999999999</v>
       </c>
       <c r="F91" s="61">
-        <v>40.965000000000003</v>
+        <v>41.7206896551724</v>
       </c>
       <c r="G91" s="61">
-        <v>58.493749999999999</v>
+        <v>53.372727272727303</v>
       </c>
       <c r="H91" s="61">
-        <v>31.571999999999999</v>
+        <v>30.746666666666702</v>
       </c>
       <c r="I91" s="61">
-        <v>37.524999999999999</v>
+        <v>44.023333333333298</v>
       </c>
       <c r="J91" s="62">
-        <v>37</v>
+        <v>31.706666666666699</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
@@ -4219,19 +4219,19 @@
         <v>0.54522222222222005</v>
       </c>
       <c r="F92" s="51">
-        <v>43.225000000000001</v>
+        <v>35.9</v>
       </c>
       <c r="G92" s="51">
-        <v>52.681818181818201</v>
+        <v>47.4</v>
       </c>
       <c r="H92" s="51">
-        <v>28.990909090909099</v>
+        <v>31.5</v>
       </c>
       <c r="I92" s="51">
-        <v>35.112499999999997</v>
+        <v>32.855555555555597</v>
       </c>
       <c r="J92" s="52">
-        <v>48.1875</v>
+        <v>41.55</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -4248,20 +4248,20 @@
       <c r="E93" s="50">
         <v>0.42699999999999999</v>
       </c>
-      <c r="F93" s="51" t="s">
-        <v>13</v>
+      <c r="F93" s="51">
+        <v>55</v>
       </c>
       <c r="G93" s="51">
-        <v>47.866666666666703</v>
+        <v>33.133333333333297</v>
       </c>
       <c r="H93" s="51">
-        <v>17.3</v>
+        <v>20.6</v>
       </c>
       <c r="I93" s="51">
-        <v>19.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="J93" s="52">
-        <v>40.700000000000003</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
@@ -4279,19 +4279,19 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="F94" s="51">
-        <v>26.66</v>
+        <v>28.466666666666701</v>
       </c>
       <c r="G94" s="51">
-        <v>37.865000000000002</v>
+        <v>34.719047619047601</v>
       </c>
       <c r="H94" s="51">
-        <v>28.7444444444445</v>
+        <v>33.746666666666698</v>
       </c>
       <c r="I94" s="51">
-        <v>16.98</v>
+        <v>26.9</v>
       </c>
       <c r="J94" s="52">
-        <v>34.18</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4309,19 +4309,19 @@
         <v>0.56473333333332998</v>
       </c>
       <c r="F95" s="51">
-        <v>37.8363636363636</v>
+        <v>36.766666666666701</v>
       </c>
       <c r="G95" s="51">
-        <v>50.64</v>
+        <v>47.75</v>
       </c>
       <c r="H95" s="51">
-        <v>29.816666666666698</v>
+        <v>30.018750000000001</v>
       </c>
       <c r="I95" s="51">
-        <v>39.3333333333333</v>
+        <v>41.0133333333333</v>
       </c>
       <c r="J95" s="52">
-        <v>33.25</v>
+        <v>26.756250000000001</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4339,19 +4339,19 @@
         <v>0.34986666666666999</v>
       </c>
       <c r="F96" s="56">
-        <v>27.9538461538462</v>
+        <v>25.2846153846154</v>
       </c>
       <c r="G96" s="56">
-        <v>36.912500000000001</v>
+        <v>26.233333333333299</v>
       </c>
       <c r="H96" s="56">
-        <v>21.6428571428571</v>
+        <v>27.957142857142902</v>
       </c>
       <c r="I96" s="56">
-        <v>28.276923076923101</v>
+        <v>23.1428571428571</v>
       </c>
       <c r="J96" s="57">
-        <v>23.435714285714301</v>
+        <v>24.3071428571429</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
@@ -4369,19 +4369,19 @@
         <v>0.57285185185184995</v>
       </c>
       <c r="F97" s="61">
-        <v>42</v>
+        <v>41.893333333333302</v>
       </c>
       <c r="G97" s="61">
-        <v>58.586111111111101</v>
+        <v>55.954054054054097</v>
       </c>
       <c r="H97" s="61">
-        <v>32.342307692307699</v>
+        <v>32.103124999999999</v>
       </c>
       <c r="I97" s="61">
-        <v>42.595238095238102</v>
+        <v>45.290624999999999</v>
       </c>
       <c r="J97" s="62">
-        <v>37.376923076923099</v>
+        <v>33.902941176470598</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4399,19 +4399,19 @@
         <v>0.52576470588235003</v>
       </c>
       <c r="F98" s="56">
-        <v>41.592857142857099</v>
+        <v>38.861538461538501</v>
       </c>
       <c r="G98" s="56">
-        <v>56.711111111111101</v>
+        <v>51.3764705882353</v>
       </c>
       <c r="H98" s="56">
-        <v>29.34</v>
+        <v>36.76</v>
       </c>
       <c r="I98" s="56">
-        <v>31.233333333333299</v>
+        <v>38.713333333333303</v>
       </c>
       <c r="J98" s="57">
-        <v>41.973333333333301</v>
+        <v>38.853333333333303</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4611,11 +4611,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5D3D2784-C1EB-4B52-B92D-38A131F30D6C}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{62DB4401-B8D5-42C7-90AA-CFA7D90B3BEC}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{9589FA47-EE56-45BF-B597-0A5777B0D5F8}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{A1CF6AB8-4596-4F1E-98FE-A5F1D42EF64C}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{2CEB7340-60C8-491C-9B93-C11FFA8DDF1A}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{007169D0-6556-42DE-9A6C-655E8BD30932}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9CCDD174-9CBE-443A-81B9-11A8AF4F84CD}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{91C55168-F35F-4399-9B11-BCDAE843BE6A}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{F1933926-C88C-4194-8BEE-2D2EABC760C5}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{2B619F9D-B37E-4EC2-B0EB-D2A7EB07A092}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF54F392-179A-443C-861B-14B36B0375B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D51030B-7EEF-486C-996E-7DE4A0AC4584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{DC6B6C7B-9B3F-464E-A78C-9AA38F070F58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4B42717A-EF81-4CC0-84CD-383B6A05BC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab10'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab10'!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -261,7 +261,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -339,7 +339,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -393,7 +393,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1357,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54BBCFD-69AD-438E-ABEF-5D654B2F9649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25247C7-2EE2-4884-9FAA-846ED1375321}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2414,31 +2414,31 @@
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="31">
         <v>0.433</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="31">
         <v>0.84199999999999997</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="17">
+      <c r="E34" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="33">
         <v>38.4</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="33">
         <v>60.5</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="33">
         <v>37.6</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="33">
         <v>33.1</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="34">
         <v>17.8</v>
       </c>
     </row>
@@ -3150,31 +3150,31 @@
       <c r="A57" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="20">
         <v>0.53900000000000003</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="20">
         <v>0.88100000000000001</v>
       </c>
-      <c r="E57" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="33">
+      <c r="E57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="22">
         <v>42.9</v>
       </c>
-      <c r="G57" s="33">
+      <c r="G57" s="22">
         <v>56.5</v>
       </c>
-      <c r="H57" s="33">
+      <c r="H57" s="22">
         <v>28.5</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="22">
         <v>36.4</v>
       </c>
-      <c r="J57" s="34">
+      <c r="J57" s="23">
         <v>48</v>
       </c>
     </row>
@@ -3520,28 +3520,28 @@
         <v>133</v>
       </c>
       <c r="C69" s="49">
-        <v>0.51383333333333003</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D69" s="49">
-        <v>0.92233333333333001</v>
+        <v>0.91128571428571004</v>
       </c>
       <c r="E69" s="50">
-        <v>0.503</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F69" s="51">
-        <v>36.566666666666698</v>
+        <v>38.071428571428598</v>
       </c>
       <c r="G69" s="51">
-        <v>54.366666666666703</v>
+        <v>54.1</v>
       </c>
       <c r="H69" s="51">
-        <v>30.65</v>
+        <v>30.8857142857143</v>
       </c>
       <c r="I69" s="51">
-        <v>35.733333333333299</v>
+        <v>39.9428571428571</v>
       </c>
       <c r="J69" s="52">
-        <v>20.716666666666701</v>
+        <v>22.714285714285701</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3760,28 +3760,28 @@
         <v>140</v>
       </c>
       <c r="C77" s="49">
-        <v>0.76316666666666999</v>
+        <v>0.76790909090908999</v>
       </c>
       <c r="D77" s="49">
-        <v>0.97866666666667002</v>
+        <v>0.97590909090908995</v>
       </c>
       <c r="E77" s="50">
-        <v>0.39316666666666999</v>
+        <v>0.38536363636364002</v>
       </c>
       <c r="F77" s="51">
-        <v>21.41</v>
+        <v>21.9444444444444</v>
       </c>
       <c r="G77" s="51">
-        <v>22.766666666666701</v>
+        <v>23.954545454545499</v>
       </c>
       <c r="H77" s="51">
-        <v>25.5416666666667</v>
+        <v>25.490909090909099</v>
       </c>
       <c r="I77" s="51">
-        <v>24.25</v>
+        <v>24.255555555555599</v>
       </c>
       <c r="J77" s="52">
-        <v>16.116666666666699</v>
+        <v>17.1636363636364</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3850,28 +3850,28 @@
         <v>142</v>
       </c>
       <c r="C80" s="59">
-        <v>0.60699999999999998</v>
+        <v>0.59640000000000004</v>
       </c>
       <c r="D80" s="59">
-        <v>0.89611111111110997</v>
+        <v>0.89177777777778</v>
       </c>
       <c r="E80" s="60">
         <v>0.50662499999999999</v>
       </c>
       <c r="F80" s="61">
-        <v>43.14</v>
+        <v>42.24</v>
       </c>
       <c r="G80" s="61">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="H80" s="61">
-        <v>27.985714285714302</v>
+        <v>29.285714285714299</v>
       </c>
       <c r="I80" s="61">
-        <v>55.457142857142898</v>
+        <v>54.985714285714302</v>
       </c>
       <c r="J80" s="62">
-        <v>42.0625</v>
+        <v>38.287500000000001</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3910,28 +3910,28 @@
         <v>144</v>
       </c>
       <c r="C82" s="49">
-        <v>0.54997674418605003</v>
+        <v>0.55244186046512</v>
       </c>
       <c r="D82" s="49">
-        <v>0.89715384615384997</v>
+        <v>0.89815384615384997</v>
       </c>
       <c r="E82" s="50">
         <v>0.53739999999999999</v>
       </c>
       <c r="F82" s="51">
-        <v>40.267567567567603</v>
+        <v>40.389189189189203</v>
       </c>
       <c r="G82" s="51">
-        <v>52.0772727272727</v>
+        <v>51.986363636363699</v>
       </c>
       <c r="H82" s="51">
-        <v>29.912820512820499</v>
+        <v>29.6794871794872</v>
       </c>
       <c r="I82" s="51">
-        <v>38.651282051282102</v>
+        <v>38.7358974358974</v>
       </c>
       <c r="J82" s="52">
-        <v>33.102499999999999</v>
+        <v>33.857500000000002</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3970,28 +3970,28 @@
         <v>146</v>
       </c>
       <c r="C84" s="59">
-        <v>0.46949999999999997</v>
+        <v>0.47447826086957001</v>
       </c>
       <c r="D84" s="59">
-        <v>0.86385000000000001</v>
+        <v>0.86833333333332996</v>
       </c>
       <c r="E84" s="60">
-        <v>0.58729411764705997</v>
+        <v>0.58461111111110997</v>
       </c>
       <c r="F84" s="61">
-        <v>41.242857142857098</v>
+        <v>40.75</v>
       </c>
       <c r="G84" s="61">
-        <v>52.043478260869598</v>
+        <v>51.2916666666667</v>
       </c>
       <c r="H84" s="61">
-        <v>32.3857142857143</v>
+        <v>32.122727272727303</v>
       </c>
       <c r="I84" s="61">
-        <v>44.423809523809503</v>
+        <v>43.886363636363697</v>
       </c>
       <c r="J84" s="62">
-        <v>31.0571428571429</v>
+        <v>30.927272727272701</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4030,28 +4030,28 @@
         <v>148</v>
       </c>
       <c r="C86" s="49">
-        <v>0.59482608695651995</v>
+        <v>0.59531818181817997</v>
       </c>
       <c r="D86" s="49">
-        <v>0.90536363636364003</v>
+        <v>0.90285714285714003</v>
       </c>
       <c r="E86" s="50">
-        <v>0.52215</v>
+        <v>0.52126315789473998</v>
       </c>
       <c r="F86" s="51">
-        <v>42.323529411764703</v>
+        <v>43.068750000000001</v>
       </c>
       <c r="G86" s="51">
-        <v>54.595652173913102</v>
+        <v>55.531818181818203</v>
       </c>
       <c r="H86" s="51">
-        <v>27.085000000000001</v>
+        <v>27.1105263157895</v>
       </c>
       <c r="I86" s="51">
-        <v>42.89</v>
+        <v>43.431578947368401</v>
       </c>
       <c r="J86" s="52">
-        <v>39.052380952381</v>
+        <v>39.594999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4060,28 +4060,28 @@
         <v>149</v>
       </c>
       <c r="C87" s="49">
-        <v>0.65803225806452004</v>
+        <v>0.65893548387097001</v>
       </c>
       <c r="D87" s="49">
-        <v>0.93344000000000005</v>
+        <v>0.93008000000000002</v>
       </c>
       <c r="E87" s="50">
-        <v>0.43180769230769001</v>
+        <v>0.43165384615385</v>
       </c>
       <c r="F87" s="51">
-        <v>34.547826086956498</v>
+        <v>36.243478260869601</v>
       </c>
       <c r="G87" s="51">
-        <v>40.103571428571399</v>
+        <v>42.907142857142901</v>
       </c>
       <c r="H87" s="51">
-        <v>33.077777777777797</v>
+        <v>33.648148148148202</v>
       </c>
       <c r="I87" s="51">
-        <v>32.076000000000001</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="J87" s="52">
-        <v>30.487500000000001</v>
+        <v>31.866666666666699</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4120,28 +4120,28 @@
         <v>151</v>
       </c>
       <c r="C89" s="49">
-        <v>0.76788888888888995</v>
+        <v>0.76613636363635995</v>
       </c>
       <c r="D89" s="49">
-        <v>0.96432499999999999</v>
+        <v>0.96439473684210997</v>
       </c>
       <c r="E89" s="50">
-        <v>0.31969999999999998</v>
+        <v>0.31865789473683998</v>
       </c>
       <c r="F89" s="51">
-        <v>25.854838709677399</v>
+        <v>25.196551724137901</v>
       </c>
       <c r="G89" s="51">
-        <v>27.6897435897436</v>
+        <v>26.610810810810801</v>
       </c>
       <c r="H89" s="51">
-        <v>28.3189189189189</v>
+        <v>28.1514285714286</v>
       </c>
       <c r="I89" s="51">
-        <v>23.240625000000001</v>
+        <v>23.163333333333298</v>
       </c>
       <c r="J89" s="52">
-        <v>22.520588235294099</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4150,28 +4150,28 @@
         <v>152</v>
       </c>
       <c r="C90" s="54">
-        <v>0.88627272727272999</v>
+        <v>0.88503571428571004</v>
       </c>
       <c r="D90" s="54">
-        <v>0.97964583333333</v>
+        <v>0.98065999999999998</v>
       </c>
       <c r="E90" s="55">
-        <v>0.1319387755102</v>
+        <v>0.1401568627451</v>
       </c>
       <c r="F90" s="56">
-        <v>19.664102564102599</v>
+        <v>19.480487804878099</v>
       </c>
       <c r="G90" s="56">
-        <v>26.786274509803899</v>
+        <v>26.092452830188702</v>
       </c>
       <c r="H90" s="56">
-        <v>21.087179487179501</v>
+        <v>21.207317073170699</v>
       </c>
       <c r="I90" s="56">
-        <v>15.941304347826099</v>
+        <v>15.875</v>
       </c>
       <c r="J90" s="57">
-        <v>24.7886363636364</v>
+        <v>24.419565217391298</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4270,28 +4270,28 @@
         <v>156</v>
       </c>
       <c r="C94" s="49">
-        <v>0.72493333333332999</v>
+        <v>0.72055172413793001</v>
       </c>
       <c r="D94" s="49">
-        <v>0.96356249999999999</v>
+        <v>0.96633333333333005</v>
       </c>
       <c r="E94" s="50">
-        <v>0.38200000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F94" s="51">
         <v>28.466666666666701</v>
       </c>
       <c r="G94" s="51">
-        <v>34.719047619047601</v>
+        <v>32.005000000000003</v>
       </c>
       <c r="H94" s="51">
         <v>33.746666666666698</v>
       </c>
       <c r="I94" s="51">
-        <v>26.9</v>
+        <v>24.887499999999999</v>
       </c>
       <c r="J94" s="52">
-        <v>29.52</v>
+        <v>26.422222222222199</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4360,28 +4360,28 @@
         <v>159</v>
       </c>
       <c r="C97" s="59">
-        <v>0.51280555555555996</v>
+        <v>0.51367567567567995</v>
       </c>
       <c r="D97" s="59">
-        <v>0.88278124999999996</v>
+        <v>0.88193939393939003</v>
       </c>
       <c r="E97" s="60">
-        <v>0.57285185185184995</v>
+        <v>0.57425000000000004</v>
       </c>
       <c r="F97" s="61">
-        <v>41.893333333333302</v>
+        <v>41.6645161290323</v>
       </c>
       <c r="G97" s="61">
-        <v>55.954054054054097</v>
+        <v>55.065789473684198</v>
       </c>
       <c r="H97" s="61">
-        <v>32.103124999999999</v>
+        <v>31.569696969696999</v>
       </c>
       <c r="I97" s="61">
-        <v>45.290624999999999</v>
+        <v>45.103030303030302</v>
       </c>
       <c r="J97" s="62">
-        <v>33.902941176470598</v>
+        <v>34.5828571428572</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4390,10 +4390,10 @@
         <v>160</v>
       </c>
       <c r="C98" s="54">
-        <v>0.60844444444444001</v>
+        <v>0.61365000000000003</v>
       </c>
       <c r="D98" s="54">
-        <v>0.85668750000000005</v>
+        <v>0.86170588235293999</v>
       </c>
       <c r="E98" s="55">
         <v>0.52576470588235003</v>
@@ -4402,13 +4402,13 @@
         <v>38.861538461538501</v>
       </c>
       <c r="G98" s="56">
-        <v>51.3764705882353</v>
+        <v>48.984210526315799</v>
       </c>
       <c r="H98" s="56">
-        <v>36.76</v>
+        <v>35.941176470588204</v>
       </c>
       <c r="I98" s="56">
-        <v>38.713333333333303</v>
+        <v>37.581249999999997</v>
       </c>
       <c r="J98" s="57">
         <v>38.853333333333303</v>
@@ -4611,11 +4611,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{007169D0-6556-42DE-9A6C-655E8BD30932}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9CCDD174-9CBE-443A-81B9-11A8AF4F84CD}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{91C55168-F35F-4399-9B11-BCDAE843BE6A}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{F1933926-C88C-4194-8BEE-2D2EABC760C5}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{2B619F9D-B37E-4EC2-B0EB-D2A7EB07A092}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{90EFEE0F-9D72-44E4-8C49-D5B28B566FB0}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7BC974BF-2EFA-4BB4-8CA1-A2105EAA0CA9}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{05064557-F780-44D1-A68C-5523EC6ED805}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{0ECDE724-05EB-4185-89B0-42EAA5B7C680}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{6FFFBC0F-2589-4979-9D42-8AA64218E6A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D51030B-7EEF-486C-996E-7DE4A0AC4584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{243B1DFD-BE61-48AB-99FE-1E22F180D3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4B42717A-EF81-4CC0-84CD-383B6A05BC33}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{564A380A-AF62-44EE-BDCF-93AFC292EF02}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -1357,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25247C7-2EE2-4884-9FAA-846ED1375321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA33EEC-0AF0-4DDF-856A-33A00632270C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4611,11 +4611,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{90EFEE0F-9D72-44E4-8C49-D5B28B566FB0}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7BC974BF-2EFA-4BB4-8CA1-A2105EAA0CA9}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{05064557-F780-44D1-A68C-5523EC6ED805}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{0ECDE724-05EB-4185-89B0-42EAA5B7C680}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{6FFFBC0F-2589-4979-9D42-8AA64218E6A3}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{96FF415D-81A7-4CB4-9DA5-58BE248CB8F4}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8D29E112-0218-4FC6-85A2-935C88EF3387}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{C5812CE8-9914-4DF3-A1AA-CAF0B328C344}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{73459A75-FB4F-4ED4-A5EC-3AF92872C1F0}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{0F89CD84-3DF1-48D0-B8D6-514F9900AFCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{243B1DFD-BE61-48AB-99FE-1E22F180D3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{170F63EB-65C9-4C48-BA30-B72EA0175703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{564A380A-AF62-44EE-BDCF-93AFC292EF02}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8DA6F670-B92F-4CDD-AE97-83D16387EECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -1357,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA33EEC-0AF0-4DDF-856A-33A00632270C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723CCF37-F85A-46C6-975A-BA06ABFC4C6B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4611,11 +4611,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{96FF415D-81A7-4CB4-9DA5-58BE248CB8F4}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8D29E112-0218-4FC6-85A2-935C88EF3387}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{C5812CE8-9914-4DF3-A1AA-CAF0B328C344}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{73459A75-FB4F-4ED4-A5EC-3AF92872C1F0}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{0F89CD84-3DF1-48D0-B8D6-514F9900AFCF}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{62230292-6C0A-4E67-9EF4-DC796490E894}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{70C21878-F5C0-4998-8919-72A7CBF00901}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{74D8E1E7-2F57-411F-9C6E-F095A7D9CD62}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{E6BBC993-9296-4499-B6D1-E510CD80BB39}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{F6C7CBF3-6770-4973-9395-C92958B4436C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{170F63EB-65C9-4C48-BA30-B72EA0175703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB2CF5C-6C82-424E-A442-6EB4827D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8DA6F670-B92F-4CDD-AE97-83D16387EECD}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{FB847658-6472-4A42-92D2-67B64D380F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
   <si>
     <t>Tableau 10 : Indicateurs de genre</t>
   </si>
@@ -540,16 +540,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723CCF37-F85A-46C6-975A-BA06ABFC4C6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A72C80-A006-456D-BF2F-454AEC5224BC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4537,7 +4540,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C109" s="66"/>
       <c r="D109" s="66"/>
@@ -4550,7 +4553,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C110" s="66"/>
       <c r="D110" s="66"/>
@@ -4562,7 +4565,9 @@
       <c r="J110" s="66"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C111" s="66"/>
       <c r="D111" s="66"/>
       <c r="E111" s="66"/>
@@ -4574,7 +4579,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C112" s="66"/>
       <c r="D112" s="66"/>
@@ -4587,7 +4592,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C113" s="66"/>
       <c r="D113" s="66"/>
@@ -4611,13 +4616,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{62230292-6C0A-4E67-9EF4-DC796490E894}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{70C21878-F5C0-4998-8919-72A7CBF00901}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{74D8E1E7-2F57-411F-9C6E-F095A7D9CD62}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{E6BBC993-9296-4499-B6D1-E510CD80BB39}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{F6C7CBF3-6770-4973-9395-C92958B4436C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BFEA5625-2DCF-43BE-8BB6-A11B4BB95B91}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{0D5B2016-966C-41E9-AB60-C3E22978E247}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{A584C5BD-C562-4DBB-B6D4-CDFBC4CA23AF}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{AF4CB6A0-C950-4920-997D-A5B1B2C33036}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{9774C93A-C324-4344-90F8-A76148637D8B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{26ACB042-B846-443D-91AD-1534888052AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB2CF5C-6C82-424E-A442-6EB4827D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6F1C9C-F8CF-4812-B67C-0C833316303D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{FB847658-6472-4A42-92D2-67B64D380F08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{040B57E9-B4F5-447F-BECE-28414A88D149}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab10'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab10'!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A72C80-A006-456D-BF2F-454AEC5224BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66426D15-1200-4A00-83FE-A29B90D6FD98}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1368,15 +1368,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1389,7 +1389,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>32</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>50</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>32</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>37.757142857142902</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>65</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>67</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>71</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>75</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>77</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>31.1666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>82</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>84</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>86</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>88</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>90</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
         <v>32</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>95</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>97</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>99</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>101</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>103</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>105</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>107</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>109</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>111</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>113</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>115</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>117</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>119</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>121</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>123</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
         <v>125</v>
@@ -3307,7 +3307,7 @@
         <v>34.2153846153846</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="36"/>
       <c r="B62" s="37" t="s">
         <v>126</v>
@@ -3337,7 +3337,7 @@
         <v>34.595833333333303</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="36"/>
       <c r="B63" s="42" t="s">
         <v>127</v>
@@ -3367,7 +3367,7 @@
         <v>26.0304761904762</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
       <c r="B64" s="48" t="s">
         <v>128</v>
@@ -3397,7 +3397,7 @@
         <v>17.616</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="47"/>
       <c r="B65" s="37" t="s">
         <v>129</v>
@@ -3427,7 +3427,7 @@
         <v>40.216000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="47"/>
       <c r="B66" s="53" t="s">
         <v>130</v>
@@ -3457,7 +3457,7 @@
         <v>28.717647058823498</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="47"/>
       <c r="B67" s="58" t="s">
         <v>131</v>
@@ -3487,7 +3487,7 @@
         <v>37.784210526315803</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="47"/>
       <c r="B68" s="37" t="s">
         <v>132</v>
@@ -3511,13 +3511,13 @@
         <v>30.995238095238101</v>
       </c>
       <c r="I68" s="51">
-        <v>45.645454545454498</v>
+        <v>45.645454545454598</v>
       </c>
       <c r="J68" s="52">
         <v>41.060869565217402</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="47"/>
       <c r="B69" s="37" t="s">
         <v>133</v>
@@ -3547,7 +3547,7 @@
         <v>22.714285714285701</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="47"/>
       <c r="B70" s="37" t="s">
         <v>134</v>
@@ -3577,7 +3577,7 @@
         <v>31.211111111111101</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="47"/>
       <c r="B71" s="37" t="s">
         <v>135</v>
@@ -3607,7 +3607,7 @@
         <v>34.2153846153846</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="47"/>
       <c r="B72" s="37" t="s">
         <v>136</v>
@@ -3637,7 +3637,7 @@
         <v>26.228571428571399</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="47"/>
       <c r="B73" s="37" t="s">
         <v>137</v>
@@ -3667,7 +3667,7 @@
         <v>30.286666666666701</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="47"/>
       <c r="B74" s="37" t="s">
         <v>137</v>
@@ -3697,7 +3697,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="47"/>
       <c r="B75" s="53" t="s">
         <v>138</v>
@@ -3727,7 +3727,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="47"/>
       <c r="B76" s="58" t="s">
         <v>139</v>
@@ -3757,7 +3757,7 @@
         <v>36.411111111111097</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="47"/>
       <c r="B77" s="37" t="s">
         <v>140</v>
@@ -3787,7 +3787,7 @@
         <v>17.1636363636364</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="47"/>
       <c r="B78" s="37" t="s">
         <v>140</v>
@@ -3817,7 +3817,7 @@
         <v>18.281481481481499</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="47"/>
       <c r="B79" s="53" t="s">
         <v>141</v>
@@ -3847,7 +3847,7 @@
         <v>18.436842105263199</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="47"/>
       <c r="B80" s="58" t="s">
         <v>142</v>
@@ -3877,7 +3877,7 @@
         <v>38.287500000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="47"/>
       <c r="B81" s="37" t="s">
         <v>143</v>
@@ -3907,7 +3907,7 @@
         <v>39.340000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="47"/>
       <c r="B82" s="37" t="s">
         <v>144</v>
@@ -3937,7 +3937,7 @@
         <v>33.857500000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="47"/>
       <c r="B83" s="53" t="s">
         <v>145</v>
@@ -3967,7 +3967,7 @@
         <v>23.8122222222222</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="47"/>
       <c r="B84" s="58" t="s">
         <v>146</v>
@@ -3997,7 +3997,7 @@
         <v>30.927272727272701</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="47"/>
       <c r="B85" s="37" t="s">
         <v>147</v>
@@ -4027,7 +4027,7 @@
         <v>70.25</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="47"/>
       <c r="B86" s="37" t="s">
         <v>148</v>
@@ -4057,7 +4057,7 @@
         <v>39.594999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="47"/>
       <c r="B87" s="37" t="s">
         <v>149</v>
@@ -4087,7 +4087,7 @@
         <v>31.866666666666699</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="47"/>
       <c r="B88" s="37" t="s">
         <v>150</v>
@@ -4117,7 +4117,7 @@
         <v>31.383333333333301</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="47"/>
       <c r="B89" s="37" t="s">
         <v>151</v>
@@ -4147,7 +4147,7 @@
         <v>21.875</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="47"/>
       <c r="B90" s="53" t="s">
         <v>152</v>
@@ -4177,7 +4177,7 @@
         <v>24.419565217391298</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="47"/>
       <c r="B91" s="58" t="s">
         <v>153</v>
@@ -4207,7 +4207,7 @@
         <v>31.706666666666699</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="47"/>
       <c r="B92" s="37" t="s">
         <v>154</v>
@@ -4237,7 +4237,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="47"/>
       <c r="B93" s="37" t="s">
         <v>155</v>
@@ -4267,7 +4267,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="47"/>
       <c r="B94" s="37" t="s">
         <v>156</v>
@@ -4297,7 +4297,7 @@
         <v>26.422222222222199</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="47"/>
       <c r="B95" s="37" t="s">
         <v>157</v>
@@ -4327,7 +4327,7 @@
         <v>26.756250000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="47"/>
       <c r="B96" s="53" t="s">
         <v>158</v>
@@ -4357,67 +4357,67 @@
         <v>24.3071428571429</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="47"/>
       <c r="B97" s="58" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="59">
-        <v>0.51367567567567995</v>
+        <v>0.52607142857142997</v>
       </c>
       <c r="D97" s="59">
-        <v>0.88193939393939003</v>
+        <v>0.88707692307691999</v>
       </c>
       <c r="E97" s="60">
-        <v>0.57425000000000004</v>
+        <v>0.56604545454544997</v>
       </c>
       <c r="F97" s="61">
-        <v>41.6645161290323</v>
+        <v>39.829166666666701</v>
       </c>
       <c r="G97" s="61">
-        <v>55.065789473684198</v>
+        <v>52.839285714285701</v>
       </c>
       <c r="H97" s="61">
-        <v>31.569696969696999</v>
+        <v>31.02</v>
       </c>
       <c r="I97" s="61">
-        <v>45.103030303030302</v>
+        <v>41.588000000000001</v>
       </c>
       <c r="J97" s="62">
-        <v>34.5828571428572</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>34.570370370370398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="47"/>
       <c r="B98" s="53" t="s">
         <v>160</v>
       </c>
       <c r="C98" s="54">
-        <v>0.61365000000000003</v>
+        <v>0.63606666666667</v>
       </c>
       <c r="D98" s="54">
-        <v>0.86170588235293999</v>
+        <v>0.91858333333332998</v>
       </c>
       <c r="E98" s="55">
-        <v>0.52576470588235003</v>
+        <v>0.48275000000000001</v>
       </c>
       <c r="F98" s="56">
-        <v>38.861538461538501</v>
+        <v>36.036363636363603</v>
       </c>
       <c r="G98" s="56">
-        <v>48.984210526315799</v>
+        <v>41.4</v>
       </c>
       <c r="H98" s="56">
-        <v>35.941176470588204</v>
+        <v>34.613333333333301</v>
       </c>
       <c r="I98" s="56">
-        <v>37.581249999999997</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="J98" s="57">
-        <v>38.853333333333303</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>29.072727272727299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="63"/>
       <c r="B99" s="64"/>
       <c r="C99" s="65"/>
@@ -4429,7 +4429,7 @@
       <c r="I99" s="65"/>
       <c r="J99" s="65"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="I101" s="66"/>
       <c r="J101" s="66"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="I102" s="66"/>
       <c r="J102" s="66"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="I103" s="66"/>
       <c r="J103" s="66"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="I104" s="66"/>
       <c r="J104" s="66"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C105" s="66"/>
       <c r="D105" s="66"/>
       <c r="E105" s="66"/>
@@ -4504,7 +4504,7 @@
       <c r="I105" s="66"/>
       <c r="J105" s="66"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" s="66"/>
       <c r="D106" s="66"/>
       <c r="E106" s="66"/>
@@ -4514,7 +4514,7 @@
       <c r="I106" s="66"/>
       <c r="J106" s="66"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="67" t="s">
         <v>166</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="I107" s="66"/>
       <c r="J107" s="66"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="67"/>
       <c r="C108" s="66"/>
       <c r="D108" s="66"/>
@@ -4538,7 +4538,7 @@
       <c r="I108" s="66"/>
       <c r="J108" s="66"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
@@ -4551,7 +4551,7 @@
       <c r="I109" s="66"/>
       <c r="J109" s="66"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>170</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="I110" s="66"/>
       <c r="J110" s="66"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>171</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="I111" s="66"/>
       <c r="J111" s="66"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>167</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="I112" s="66"/>
       <c r="J112" s="66"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>168</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="I113" s="66"/>
       <c r="J113" s="66"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="66"/>
       <c r="D114" s="66"/>
@@ -4616,12 +4616,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BFEA5625-2DCF-43BE-8BB6-A11B4BB95B91}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{0D5B2016-966C-41E9-AB60-C3E22978E247}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{A584C5BD-C562-4DBB-B6D4-CDFBC4CA23AF}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{AF4CB6A0-C950-4920-997D-A5B1B2C33036}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{9774C93A-C324-4344-90F8-A76148637D8B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{26ACB042-B846-443D-91AD-1534888052AE}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8AE8C792-E330-48B6-A1BF-D9BF198DCB53}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{CAD66110-C683-4B36-B559-1F440F7D109F}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{4EE9AE3F-687E-481B-BFD5-5CBEEDB8F4EF}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{D1BBD27B-07BD-4721-8CF7-B16890800A37}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{AD452CE8-9C90-468E-8498-044C0EE93296}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{2CE23327-C6A1-441B-B451-F5E91ABD3CED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
